--- a/artfynd/A 35742-2022.xlsx
+++ b/artfynd/A 35742-2022.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6794618</v>
+        <v>110076352</v>
       </c>
       <c r="B2" t="n">
         <v>78072</v>
@@ -714,16 +714,17 @@
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Öster om Stor-Vävelsjön, Hjd</t>
+          <t>Slåttrösthammaren, Hjd</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>428683.8069340216</v>
+        <v>428398.2475711301</v>
       </c>
       <c r="R2" t="n">
-        <v>6968384.788107738</v>
+        <v>6968218.251045209</v>
       </c>
       <c r="S2" t="n">
         <v>25</v>
@@ -750,7 +751,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2013-05-31</t>
+          <t>2023-06-13</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -760,7 +761,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2013-05-31</t>
+          <t>2023-06-13</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -780,23 +781,19 @@
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>Hugo Ström</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Hugo Ström</t>
-        </is>
-      </c>
-      <c r="AY2" t="inlineStr">
-        <is>
-          <t>SCA Skog Naturvärdesinventering</t>
-        </is>
-      </c>
+          <t>Erland Lindblad</t>
+        </is>
+      </c>
+      <c r="AY2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>6794619</v>
+        <v>110076358</v>
       </c>
       <c r="B3" t="n">
         <v>78098</v>
@@ -830,16 +827,17 @@
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Öster om Stor-Vävelsjön, Hjd</t>
+          <t>Slåttrösthammaren, Hjd</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>428687.9835908828</v>
+        <v>428398.2475711301</v>
       </c>
       <c r="R3" t="n">
-        <v>6968387.439416924</v>
+        <v>6968218.251045209</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>
@@ -866,7 +864,7 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2013-05-31</t>
+          <t>2023-06-13</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -876,7 +874,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2013-05-31</t>
+          <t>2023-06-13</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
@@ -896,26 +894,22 @@
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>Hugo Ström</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>Hugo Ström</t>
-        </is>
-      </c>
-      <c r="AY3" t="inlineStr">
-        <is>
-          <t>SCA Skog Naturvärdesinventering</t>
-        </is>
-      </c>
+          <t>Erland Lindblad</t>
+        </is>
+      </c>
+      <c r="AY3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>110075547</v>
+        <v>6794618</v>
       </c>
       <c r="B4" t="n">
-        <v>78098</v>
+        <v>78072</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -928,35 +922,34 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6453</v>
+        <v>229821</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Vedflamlav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Ramboldia elabens</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Fr.) Kantvilas &amp; Elix</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Slåttrösthammaren, Hjd</t>
+          <t>Öster om Stor-Vävelsjön, Hjd</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>428529.5896594818</v>
+        <v>428683.8069340216</v>
       </c>
       <c r="R4" t="n">
-        <v>6968112.548214767</v>
+        <v>6968384.788107738</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>
@@ -983,7 +976,7 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>2023-06-13</t>
+          <t>2013-05-31</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -993,7 +986,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2023-06-13</t>
+          <t>2013-05-31</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
@@ -1013,22 +1006,26 @@
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Hugo Ström</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
-        </is>
-      </c>
-      <c r="AY4" t="inlineStr"/>
+          <t>Hugo Ström</t>
+        </is>
+      </c>
+      <c r="AY4" t="inlineStr">
+        <is>
+          <t>SCA Skog Naturvärdesinventering</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>110075549</v>
+        <v>6794619</v>
       </c>
       <c r="B5" t="n">
-        <v>78072</v>
+        <v>78098</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1041,35 +1038,34 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>229821</v>
+        <v>6453</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Vedflamlav</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Ramboldia elabens</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Fr.) Kantvilas &amp; Elix</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Slåttrösthammaren, Hjd</t>
+          <t>Öster om Stor-Vävelsjön, Hjd</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>428529.5896594818</v>
+        <v>428687.9835908828</v>
       </c>
       <c r="R5" t="n">
-        <v>6968112.548214767</v>
+        <v>6968387.439416924</v>
       </c>
       <c r="S5" t="n">
         <v>25</v>
@@ -1096,7 +1092,7 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2023-06-13</t>
+          <t>2013-05-31</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1106,7 +1102,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2023-06-13</t>
+          <t>2013-05-31</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
@@ -1126,22 +1122,26 @@
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Hugo Ström</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
-        </is>
-      </c>
-      <c r="AY5" t="inlineStr"/>
+          <t>Hugo Ström</t>
+        </is>
+      </c>
+      <c r="AY5" t="inlineStr">
+        <is>
+          <t>SCA Skog Naturvärdesinventering</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>110076486</v>
+        <v>110075547</v>
       </c>
       <c r="B6" t="n">
-        <v>78072</v>
+        <v>78098</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1154,21 +1154,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>229821</v>
+        <v>6453</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Vedflamlav</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Ramboldia elabens</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Fr.) Kantvilas &amp; Elix</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1179,10 +1179,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>428437.5493903486</v>
+        <v>428529.5896594818</v>
       </c>
       <c r="R6" t="n">
-        <v>6968005.772483499</v>
+        <v>6968112.548214767</v>
       </c>
       <c r="S6" t="n">
         <v>25</v>
@@ -1251,10 +1251,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>110076483</v>
+        <v>110075549</v>
       </c>
       <c r="B7" t="n">
-        <v>77177</v>
+        <v>78072</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1267,21 +1267,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>353</v>
+        <v>229821</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Vedflamlav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Ramboldia elabens</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(Fr.) Kantvilas &amp; Elix</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1292,10 +1292,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>428437.5493903486</v>
+        <v>428529.5896594818</v>
       </c>
       <c r="R7" t="n">
-        <v>6968005.772483499</v>
+        <v>6968112.548214767</v>
       </c>
       <c r="S7" t="n">
         <v>25</v>
@@ -1364,10 +1364,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>110075736</v>
+        <v>110076486</v>
       </c>
       <c r="B8" t="n">
-        <v>95525</v>
+        <v>78072</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1376,25 +1376,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>221941</v>
+        <v>229821</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Plattlummer</t>
+          <t>Vedflamlav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Lycopodium complanatum</t>
+          <t>Ramboldia elabens</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Fr.) Kantvilas &amp; Elix</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1405,10 +1405,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>428653.7851904702</v>
+        <v>428437.5493903486</v>
       </c>
       <c r="R8" t="n">
-        <v>6968309.117210778</v>
+        <v>6968005.772483499</v>
       </c>
       <c r="S8" t="n">
         <v>25</v>
@@ -1477,7 +1477,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>110075810</v>
+        <v>110076483</v>
       </c>
       <c r="B9" t="n">
         <v>77177</v>
@@ -1518,10 +1518,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>428681.7797006101</v>
+        <v>428437.5493903486</v>
       </c>
       <c r="R9" t="n">
-        <v>6968312.621547545</v>
+        <v>6968005.772483499</v>
       </c>
       <c r="S9" t="n">
         <v>25</v>
@@ -1590,10 +1590,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>110076489</v>
+        <v>110075736</v>
       </c>
       <c r="B10" t="n">
-        <v>78098</v>
+        <v>95525</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1602,25 +1602,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6453</v>
+        <v>221941</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Plattlummer</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Lycopodium complanatum</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1631,10 +1631,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>428437.5493903486</v>
+        <v>428653.7851904702</v>
       </c>
       <c r="R10" t="n">
-        <v>6968005.772483499</v>
+        <v>6968309.117210778</v>
       </c>
       <c r="S10" t="n">
         <v>25</v>
@@ -1703,10 +1703,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>110076352</v>
+        <v>110075810</v>
       </c>
       <c r="B11" t="n">
-        <v>78072</v>
+        <v>77177</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1719,21 +1719,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>229821</v>
+        <v>353</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Vedflamlav</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Ramboldia elabens</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Fr.) Kantvilas &amp; Elix</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1744,10 +1744,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>428398.2475711301</v>
+        <v>428681.7797006101</v>
       </c>
       <c r="R11" t="n">
-        <v>6968218.251045209</v>
+        <v>6968312.621547545</v>
       </c>
       <c r="S11" t="n">
         <v>25</v>
@@ -1816,7 +1816,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>110076358</v>
+        <v>110076489</v>
       </c>
       <c r="B12" t="n">
         <v>78098</v>
@@ -1857,10 +1857,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>428398.2475711301</v>
+        <v>428437.5493903486</v>
       </c>
       <c r="R12" t="n">
-        <v>6968218.251045209</v>
+        <v>6968005.772483499</v>
       </c>
       <c r="S12" t="n">
         <v>25</v>

--- a/artfynd/A 35742-2022.xlsx
+++ b/artfynd/A 35742-2022.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>110076352</v>
+        <v>6794618</v>
       </c>
       <c r="B2" t="n">
         <v>78072</v>
@@ -714,17 +714,16 @@
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Slåttrösthammaren, Hjd</t>
+          <t>Öster om Stor-Vävelsjön, Hjd</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>428398.2475711301</v>
+        <v>428683.8069340216</v>
       </c>
       <c r="R2" t="n">
-        <v>6968218.251045209</v>
+        <v>6968384.788107738</v>
       </c>
       <c r="S2" t="n">
         <v>25</v>
@@ -751,7 +750,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2023-06-13</t>
+          <t>2013-05-31</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -761,7 +760,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2023-06-13</t>
+          <t>2013-05-31</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -781,19 +780,23 @@
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Hugo Ström</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
-        </is>
-      </c>
-      <c r="AY2" t="inlineStr"/>
+          <t>Hugo Ström</t>
+        </is>
+      </c>
+      <c r="AY2" t="inlineStr">
+        <is>
+          <t>SCA Skog Naturvärdesinventering</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>110076358</v>
+        <v>6794619</v>
       </c>
       <c r="B3" t="n">
         <v>78098</v>
@@ -827,17 +830,16 @@
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Slåttrösthammaren, Hjd</t>
+          <t>Öster om Stor-Vävelsjön, Hjd</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>428398.2475711301</v>
+        <v>428687.9835908828</v>
       </c>
       <c r="R3" t="n">
-        <v>6968218.251045209</v>
+        <v>6968387.439416924</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>
@@ -864,7 +866,7 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2023-06-13</t>
+          <t>2013-05-31</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -874,7 +876,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2023-06-13</t>
+          <t>2013-05-31</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
@@ -894,22 +896,26 @@
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Hugo Ström</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
-        </is>
-      </c>
-      <c r="AY3" t="inlineStr"/>
+          <t>Hugo Ström</t>
+        </is>
+      </c>
+      <c r="AY3" t="inlineStr">
+        <is>
+          <t>SCA Skog Naturvärdesinventering</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>6794618</v>
+        <v>110075547</v>
       </c>
       <c r="B4" t="n">
-        <v>78072</v>
+        <v>78098</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -922,34 +928,35 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>229821</v>
+        <v>6453</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Vedflamlav</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Ramboldia elabens</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Fr.) Kantvilas &amp; Elix</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Öster om Stor-Vävelsjön, Hjd</t>
+          <t>Slåttrösthammaren, Hjd</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>428683.8069340216</v>
+        <v>428529.5896594818</v>
       </c>
       <c r="R4" t="n">
-        <v>6968384.788107738</v>
+        <v>6968112.548214767</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>
@@ -976,7 +983,7 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>2013-05-31</t>
+          <t>2023-06-13</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -986,7 +993,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2013-05-31</t>
+          <t>2023-06-13</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
@@ -1006,26 +1013,22 @@
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>Hugo Ström</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>Hugo Ström</t>
-        </is>
-      </c>
-      <c r="AY4" t="inlineStr">
-        <is>
-          <t>SCA Skog Naturvärdesinventering</t>
-        </is>
-      </c>
+          <t>Erland Lindblad</t>
+        </is>
+      </c>
+      <c r="AY4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>6794619</v>
+        <v>110075549</v>
       </c>
       <c r="B5" t="n">
-        <v>78098</v>
+        <v>78072</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1038,34 +1041,35 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6453</v>
+        <v>229821</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Vedflamlav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Ramboldia elabens</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Fr.) Kantvilas &amp; Elix</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Öster om Stor-Vävelsjön, Hjd</t>
+          <t>Slåttrösthammaren, Hjd</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>428687.9835908828</v>
+        <v>428529.5896594818</v>
       </c>
       <c r="R5" t="n">
-        <v>6968387.439416924</v>
+        <v>6968112.548214767</v>
       </c>
       <c r="S5" t="n">
         <v>25</v>
@@ -1092,7 +1096,7 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2013-05-31</t>
+          <t>2023-06-13</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1102,7 +1106,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2013-05-31</t>
+          <t>2023-06-13</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
@@ -1122,26 +1126,22 @@
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>Hugo Ström</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Hugo Ström</t>
-        </is>
-      </c>
-      <c r="AY5" t="inlineStr">
-        <is>
-          <t>SCA Skog Naturvärdesinventering</t>
-        </is>
-      </c>
+          <t>Erland Lindblad</t>
+        </is>
+      </c>
+      <c r="AY5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>110075547</v>
+        <v>110076486</v>
       </c>
       <c r="B6" t="n">
-        <v>78098</v>
+        <v>78072</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1154,21 +1154,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6453</v>
+        <v>229821</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Vedflamlav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Ramboldia elabens</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Fr.) Kantvilas &amp; Elix</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1179,10 +1179,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>428529.5896594818</v>
+        <v>428437.5493903486</v>
       </c>
       <c r="R6" t="n">
-        <v>6968112.548214767</v>
+        <v>6968005.772483499</v>
       </c>
       <c r="S6" t="n">
         <v>25</v>
@@ -1251,10 +1251,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>110075549</v>
+        <v>110076483</v>
       </c>
       <c r="B7" t="n">
-        <v>78072</v>
+        <v>77177</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1267,21 +1267,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>229821</v>
+        <v>353</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Vedflamlav</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Ramboldia elabens</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Fr.) Kantvilas &amp; Elix</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1292,10 +1292,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>428529.5896594818</v>
+        <v>428437.5493903486</v>
       </c>
       <c r="R7" t="n">
-        <v>6968112.548214767</v>
+        <v>6968005.772483499</v>
       </c>
       <c r="S7" t="n">
         <v>25</v>
@@ -1364,10 +1364,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>110076486</v>
+        <v>110075736</v>
       </c>
       <c r="B8" t="n">
-        <v>78072</v>
+        <v>95525</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1376,25 +1376,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>229821</v>
+        <v>221941</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Vedflamlav</t>
+          <t>Plattlummer</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Ramboldia elabens</t>
+          <t>Lycopodium complanatum</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Fr.) Kantvilas &amp; Elix</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1405,10 +1405,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>428437.5493903486</v>
+        <v>428653.7851904702</v>
       </c>
       <c r="R8" t="n">
-        <v>6968005.772483499</v>
+        <v>6968309.117210778</v>
       </c>
       <c r="S8" t="n">
         <v>25</v>
@@ -1477,7 +1477,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>110076483</v>
+        <v>110075810</v>
       </c>
       <c r="B9" t="n">
         <v>77177</v>
@@ -1518,10 +1518,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>428437.5493903486</v>
+        <v>428681.7797006101</v>
       </c>
       <c r="R9" t="n">
-        <v>6968005.772483499</v>
+        <v>6968312.621547545</v>
       </c>
       <c r="S9" t="n">
         <v>25</v>
@@ -1590,10 +1590,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>110075736</v>
+        <v>110076489</v>
       </c>
       <c r="B10" t="n">
-        <v>95525</v>
+        <v>78098</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1602,25 +1602,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>221941</v>
+        <v>6453</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Plattlummer</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Lycopodium complanatum</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1631,10 +1631,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>428653.7851904702</v>
+        <v>428437.5493903486</v>
       </c>
       <c r="R10" t="n">
-        <v>6968309.117210778</v>
+        <v>6968005.772483499</v>
       </c>
       <c r="S10" t="n">
         <v>25</v>
@@ -1703,10 +1703,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>110075810</v>
+        <v>110076352</v>
       </c>
       <c r="B11" t="n">
-        <v>77177</v>
+        <v>78072</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1719,21 +1719,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>353</v>
+        <v>229821</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Vedflamlav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Ramboldia elabens</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(Fr.) Kantvilas &amp; Elix</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1744,10 +1744,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>428681.7797006101</v>
+        <v>428398.2475711301</v>
       </c>
       <c r="R11" t="n">
-        <v>6968312.621547545</v>
+        <v>6968218.251045209</v>
       </c>
       <c r="S11" t="n">
         <v>25</v>
@@ -1816,7 +1816,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>110076489</v>
+        <v>110076358</v>
       </c>
       <c r="B12" t="n">
         <v>78098</v>
@@ -1857,10 +1857,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>428437.5493903486</v>
+        <v>428398.2475711301</v>
       </c>
       <c r="R12" t="n">
-        <v>6968005.772483499</v>
+        <v>6968218.251045209</v>
       </c>
       <c r="S12" t="n">
         <v>25</v>
